--- a/target/test-classes/testdata/WebAutomationExcelFile.xlsx
+++ b/target/test-classes/testdata/WebAutomationExcelFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21216" windowHeight="8964"/>
+    <workbookView windowWidth="21431" windowHeight="9527"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>username</t>
   </si>
@@ -39,12 +39,6 @@
   </si>
   <si>
     <t>Password123</t>
-  </si>
-  <si>
-    <t>varsha</t>
-  </si>
-  <si>
-    <t>Password@123</t>
   </si>
 </sst>
 </file>
@@ -666,14 +660,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1212,7 +1203,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1234,17 +1225,14 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
+      <c r="A3" s="1" t="s">
+        <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="Password@123"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
